--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga6</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H2">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I2">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J2">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N2">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O2">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P2">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q2">
-        <v>206.3485036980517</v>
+        <v>371.0051305154475</v>
       </c>
       <c r="R2">
-        <v>206.3485036980517</v>
+        <v>3339.046174639028</v>
       </c>
       <c r="S2">
-        <v>0.004721758419440484</v>
+        <v>0.007705875645123953</v>
       </c>
       <c r="T2">
-        <v>0.004721758419440484</v>
+        <v>0.007705875645123952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H3">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I3">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J3">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N3">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P3">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q3">
-        <v>0.3402067159167183</v>
+        <v>0.8098578167835556</v>
       </c>
       <c r="R3">
-        <v>0.3402067159167183</v>
+        <v>7.288720351052</v>
       </c>
       <c r="S3">
-        <v>7.784761684439239E-06</v>
+        <v>1.682096314327334E-05</v>
       </c>
       <c r="T3">
-        <v>7.784761684439239E-06</v>
+        <v>1.682096314327333E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H4">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I4">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J4">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N4">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O4">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P4">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q4">
-        <v>41.09177554864748</v>
+        <v>87.93761207524844</v>
       </c>
       <c r="R4">
-        <v>41.09177554864748</v>
+        <v>791.438508677236</v>
       </c>
       <c r="S4">
-        <v>0.0009402803203773207</v>
+        <v>0.001826487688295729</v>
       </c>
       <c r="T4">
-        <v>0.0009402803203773207</v>
+        <v>0.001826487688295728</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H5">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I5">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J5">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N5">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O5">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P5">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q5">
-        <v>3.786509634079991</v>
+        <v>15.822517200672</v>
       </c>
       <c r="R5">
-        <v>3.786509634079991</v>
+        <v>142.402654806048</v>
       </c>
       <c r="S5">
-        <v>8.664460087954837E-05</v>
+        <v>0.0003286379079766838</v>
       </c>
       <c r="T5">
-        <v>8.664460087954837E-05</v>
+        <v>0.0003286379079766836</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H6">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I6">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J6">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N6">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O6">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P6">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q6">
-        <v>35007.57629326169</v>
+        <v>36296.30381328593</v>
       </c>
       <c r="R6">
-        <v>35007.57629326169</v>
+        <v>326666.7343195733</v>
       </c>
       <c r="S6">
-        <v>0.8010589616331399</v>
+        <v>0.7538839238536461</v>
       </c>
       <c r="T6">
-        <v>0.8010589616331399</v>
+        <v>0.753883923853646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H7">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I7">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J7">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N7">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P7">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q7">
-        <v>57.7169804941356</v>
+        <v>79.23029345362779</v>
       </c>
       <c r="R7">
-        <v>57.7169804941356</v>
+        <v>713.0726410826501</v>
       </c>
       <c r="S7">
-        <v>0.001320705668850654</v>
+        <v>0.001645634355061603</v>
       </c>
       <c r="T7">
-        <v>0.001320705668850654</v>
+        <v>0.001645634355061602</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H8">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I8">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J8">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N8">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O8">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P8">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q8">
-        <v>6971.329773487684</v>
+        <v>8603.143250508772</v>
       </c>
       <c r="R8">
-        <v>6971.329773487684</v>
+        <v>77428.28925457895</v>
       </c>
       <c r="S8">
-        <v>0.1595210746031321</v>
+        <v>0.1786895829540227</v>
       </c>
       <c r="T8">
-        <v>0.1595210746031321</v>
+        <v>0.1786895829540226</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H9">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I9">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J9">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N9">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O9">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P9">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q9">
-        <v>642.3915004210287</v>
+        <v>1547.9540420604</v>
       </c>
       <c r="R9">
-        <v>642.3915004210287</v>
+        <v>13931.5863785436</v>
       </c>
       <c r="S9">
-        <v>0.01469948859008197</v>
+        <v>0.03215141886558832</v>
       </c>
       <c r="T9">
-        <v>0.01469948859008197</v>
+        <v>0.0321514188655883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>3.36251180739028</v>
+        <v>0.08498099999999999</v>
       </c>
       <c r="H10">
-        <v>3.36251180739028</v>
+        <v>0.254943</v>
       </c>
       <c r="I10">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="J10">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N10">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O10">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P10">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q10">
-        <v>632.4483658956474</v>
+        <v>16.386764933786</v>
       </c>
       <c r="R10">
-        <v>632.4483658956474</v>
+        <v>147.480884404074</v>
       </c>
       <c r="S10">
-        <v>0.01447196535478122</v>
+        <v>0.00034035748408707</v>
       </c>
       <c r="T10">
-        <v>0.01447196535478122</v>
+        <v>0.0003403574840870699</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>3.36251180739028</v>
+        <v>0.08498099999999999</v>
       </c>
       <c r="H11">
-        <v>3.36251180739028</v>
+        <v>0.254943</v>
       </c>
       <c r="I11">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="J11">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N11">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O11">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P11">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q11">
-        <v>1.042717430425858</v>
+        <v>0.035770259174</v>
       </c>
       <c r="R11">
-        <v>1.042717430425858</v>
+        <v>0.321932332566</v>
       </c>
       <c r="S11">
-        <v>2.385992492300844E-05</v>
+        <v>7.429578362049669E-07</v>
       </c>
       <c r="T11">
-        <v>2.385992492300844E-05</v>
+        <v>7.429578362049667E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.36251180739028</v>
+        <v>0.08498099999999999</v>
       </c>
       <c r="H12">
-        <v>3.36251180739028</v>
+        <v>0.254943</v>
       </c>
       <c r="I12">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="J12">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N12">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O12">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P12">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q12">
-        <v>125.9443409171578</v>
+        <v>3.884078303481999</v>
       </c>
       <c r="R12">
-        <v>125.9443409171578</v>
+        <v>34.956704731338</v>
       </c>
       <c r="S12">
-        <v>0.002881914535114155</v>
+        <v>8.067334368388228E-05</v>
       </c>
       <c r="T12">
-        <v>0.002881914535114155</v>
+        <v>8.067334368388228E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08498099999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.254943</v>
+      </c>
+      <c r="I13">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="J13">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.223696</v>
+      </c>
+      <c r="N13">
+        <v>24.671088</v>
+      </c>
+      <c r="O13">
+        <v>0.0332702797409786</v>
+      </c>
+      <c r="P13">
+        <v>0.0332702797409786</v>
+      </c>
+      <c r="Q13">
+        <v>0.6988579097759999</v>
+      </c>
+      <c r="R13">
+        <v>6.289721187984</v>
+      </c>
+      <c r="S13">
+        <v>1.451546542998786E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.451546542998785E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H14">
+        <v>13.624172</v>
+      </c>
+      <c r="I14">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J14">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>192.8285726666667</v>
+      </c>
+      <c r="N14">
+        <v>578.485718</v>
+      </c>
+      <c r="O14">
+        <v>0.7801188850698786</v>
+      </c>
+      <c r="P14">
+        <v>0.7801188850698786</v>
+      </c>
+      <c r="Q14">
+        <v>875.7098801750551</v>
+      </c>
+      <c r="R14">
+        <v>7881.388921575496</v>
+      </c>
+      <c r="S14">
+        <v>0.01818872808702143</v>
+      </c>
+      <c r="T14">
+        <v>0.01818872808702143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H15">
+        <v>13.624172</v>
+      </c>
+      <c r="I15">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J15">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4209206666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.262762</v>
+      </c>
+      <c r="O15">
+        <v>0.001702901995496819</v>
+      </c>
+      <c r="P15">
+        <v>0.001702901995496819</v>
+      </c>
+      <c r="Q15">
+        <v>1.911565187007111</v>
+      </c>
+      <c r="R15">
+        <v>17.204086683064</v>
+      </c>
+      <c r="S15">
+        <v>3.970371945573833E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.970371945573832E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.36251180739028</v>
-      </c>
-      <c r="H13">
-        <v>3.36251180739028</v>
-      </c>
-      <c r="I13">
-        <v>0.0176433014024136</v>
-      </c>
-      <c r="J13">
-        <v>0.0176433014024136</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.45142943738572</v>
-      </c>
-      <c r="N13">
-        <v>3.45142943738572</v>
-      </c>
-      <c r="O13">
-        <v>0.01505169477855673</v>
-      </c>
-      <c r="P13">
-        <v>0.01505169477855673</v>
-      </c>
-      <c r="Q13">
-        <v>11.60547223558387</v>
-      </c>
-      <c r="R13">
-        <v>11.60547223558387</v>
-      </c>
-      <c r="S13">
-        <v>0.0002655615875952113</v>
-      </c>
-      <c r="T13">
-        <v>0.0002655615875952113</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H16">
+        <v>13.624172</v>
+      </c>
+      <c r="I16">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J16">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>45.70525533333333</v>
+      </c>
+      <c r="N16">
+        <v>137.115766</v>
+      </c>
+      <c r="O16">
+        <v>0.184907933193646</v>
+      </c>
+      <c r="P16">
+        <v>0.184907933193646</v>
+      </c>
+      <c r="Q16">
+        <v>207.5654199884169</v>
+      </c>
+      <c r="R16">
+        <v>1868.088779895752</v>
+      </c>
+      <c r="S16">
+        <v>0.004311189207643771</v>
+      </c>
+      <c r="T16">
+        <v>0.004311189207643771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H17">
+        <v>13.624172</v>
+      </c>
+      <c r="I17">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J17">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.223696</v>
+      </c>
+      <c r="N17">
+        <v>24.671088</v>
+      </c>
+      <c r="O17">
+        <v>0.0332702797409786</v>
+      </c>
+      <c r="P17">
+        <v>0.0332702797409786</v>
+      </c>
+      <c r="Q17">
+        <v>37.347016259904</v>
+      </c>
+      <c r="R17">
+        <v>336.123146339136</v>
+      </c>
+      <c r="S17">
+        <v>0.0007757075019836141</v>
+      </c>
+      <c r="T17">
+        <v>0.0007757075019836138</v>
       </c>
     </row>
   </sheetData>
